--- a/Output_Backtest/Maximum_Diversification_drawdowns.xlsx
+++ b/Output_Backtest/Maximum_Diversification_drawdowns.xlsx
@@ -684,7 +684,7 @@
         <v>42338</v>
       </c>
       <c r="B38">
-        <v>-0.01794657817022693</v>
+        <v>-0.01794662567860261</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>-0.05015766125801491</v>
+        <v>-0.05015792997048796</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>-0.05870837773710902</v>
+        <v>-0.05870843624569921</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>-0.05327272104249703</v>
+        <v>-0.05327252081427736</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>42460</v>
       </c>
       <c r="B42">
-        <v>-0.02437913754324661</v>
+        <v>-0.02437899511939912</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>42490</v>
       </c>
       <c r="B43">
-        <v>-0.004337695825292864</v>
+        <v>-0.004337458367012381</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>-0.02903147597559239</v>
+        <v>-0.0290315066289277</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>-0.04533111039475014</v>
+        <v>-0.04533108710451782</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>-0.03457660283190767</v>
+        <v>-0.03457661352006704</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>42766</v>
       </c>
       <c r="B52">
-        <v>-0.03054194057459773</v>
+        <v>-0.03054207418763301</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>42794</v>
       </c>
       <c r="B53">
-        <v>-0.01696768513186655</v>
+        <v>-0.01696787138327516</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>42825</v>
       </c>
       <c r="B54">
-        <v>-0.02573779122439696</v>
+        <v>-0.02573816835667093</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>42855</v>
       </c>
       <c r="B55">
-        <v>-0.01906338431401631</v>
+        <v>-0.01906365108299971</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>42886</v>
       </c>
       <c r="B56">
-        <v>-0.0142278913342136</v>
+        <v>-0.01422807129569892</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>42916</v>
       </c>
       <c r="B57">
-        <v>-0.016417865429138</v>
+        <v>-0.01641799469998667</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>42947</v>
       </c>
       <c r="B58">
-        <v>-0.001893001729314653</v>
+        <v>-0.00189352508093438</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>-0.01824962369920702</v>
+        <v>-0.01824951499838981</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>-0.005185286755064242</v>
+        <v>-0.005184856626948511</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>-0.007864001061874048</v>
+        <v>-0.007863458767894833</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -940,7 +940,7 @@
         <v>43312</v>
       </c>
       <c r="B70">
-        <v>-0.002141684171836633</v>
+        <v>-0.002141472199349067</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>-0.009261878013666331</v>
+        <v>-0.009261751133864774</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>-0.03621710424190573</v>
+        <v>-0.03621693954370069</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>-0.04054263829494952</v>
+        <v>-0.0405422703669823</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>-0.05362191125277048</v>
+        <v>-0.05362177484666501</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>43496</v>
       </c>
       <c r="B76">
-        <v>-0.008925383237028376</v>
+        <v>-0.008925066326037475</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>43524</v>
       </c>
       <c r="B77">
-        <v>-0.002658737203770339</v>
+        <v>-0.002658397359645532</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>43616</v>
       </c>
       <c r="B80">
-        <v>-0.01257246022393675</v>
+        <v>-0.01257232914242695</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>43890</v>
       </c>
       <c r="B89">
-        <v>-0.007377991770884895</v>
+        <v>-0.00737821051260708</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>-0.03246478328208934</v>
+        <v>-0.0324652787993728</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>43951</v>
       </c>
       <c r="B91">
-        <v>-0.0211622893881894</v>
+        <v>-0.02116255326530731</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>44074</v>
       </c>
       <c r="B95">
-        <v>-0.0152529605863046</v>
+        <v>-0.01525289046735828</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>-0.02743784976214268</v>
+        <v>-0.02743776548854176</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>-0.0458551262386671</v>
+        <v>-0.04585522146791773</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>44165</v>
       </c>
       <c r="B98">
-        <v>-0.0005307018429731341</v>
+        <v>-0.0005307408283381334</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>-0.00480513007059171</v>
+        <v>-0.004805138086676898</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>44255</v>
       </c>
       <c r="B101">
-        <v>-0.01513301845422817</v>
+        <v>-0.01513313684768271</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>44286</v>
       </c>
       <c r="B102">
-        <v>-0.03308806788932688</v>
+        <v>-0.03308910095615149</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>44316</v>
       </c>
       <c r="B103">
-        <v>-0.01510185466023021</v>
+        <v>-0.015102055033762</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>44347</v>
       </c>
       <c r="B104">
-        <v>-0.003542100993987896</v>
+        <v>-0.003542552452421251</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>44439</v>
       </c>
       <c r="B107">
-        <v>-0.002605953893825846</v>
+        <v>-0.00260582290958215</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>-0.0205040984411017</v>
+        <v>-0.02050390210572137</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44500</v>
       </c>
       <c r="B109">
-        <v>-0.01057770112241433</v>
+        <v>-0.01057743106585329</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>-0.01473006723114258</v>
+        <v>-0.01473007200271659</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>44561</v>
       </c>
       <c r="B111">
-        <v>-0.006936741931085891</v>
+        <v>-0.006936834147002432</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>-0.0326820783266913</v>
+        <v>-0.03268203213145162</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>-0.03805970122267537</v>
+        <v>-0.03805937054853675</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>-0.06502841841142236</v>
+        <v>-0.06502801279973339</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>-0.1067891629603374</v>
+        <v>-0.106788227520238</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>-0.09857447996625297</v>
+        <v>-0.09857336325350982</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>-0.1127496918680567</v>
+        <v>-0.1127484178977075</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>-0.1079462587214371</v>
+        <v>-0.1079449850283887</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>-0.1381855149434137</v>
+        <v>-0.1381854528287574</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>-0.1969383787393889</v>
+        <v>-0.1969382818117332</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>-0.2151585436593889</v>
+        <v>-0.2151584280825633</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>-0.1695878037801735</v>
+        <v>-0.169587842996258</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>-0.1762345380774362</v>
+        <v>-0.1762344905000834</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>-0.1357492369589592</v>
+        <v>-0.1357495880744941</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>-0.1710811042793287</v>
+        <v>-0.1710813229249041</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>-0.1419623430417926</v>
+        <v>-0.1419626486786402</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>-0.1434767124703062</v>
+        <v>-0.1434769484578544</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>-0.1783645769339461</v>
+        <v>-0.1783648582694223</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>-0.1605261442163887</v>
+        <v>-0.1605253594888382</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>-0.1222012235240044</v>
+        <v>-0.1221994680511313</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>-0.14712387443163</v>
+        <v>-0.1471225227579772</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>-0.1694146988323454</v>
+        <v>-0.1694143221520989</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>-0.1717241366329268</v>
+        <v>-0.171724085328317</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>-0.1511870869613758</v>
+        <v>-0.1511868542410029</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>-0.1370089430017621</v>
+        <v>-0.1370086320579603</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>-0.143346002301772</v>
+        <v>-0.1433456317114896</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>-0.1267437598919247</v>
+        <v>-0.1267433035285725</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>45382</v>
       </c>
       <c r="B138">
-        <v>-0.09177630480655707</v>
+        <v>-0.09177558643831515</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>-0.09933461529731746</v>
+        <v>-0.09933379999602041</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>45443</v>
       </c>
       <c r="B140">
-        <v>-0.09278115521671942</v>
+        <v>-0.09278030712755615</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>45473</v>
       </c>
       <c r="B141">
-        <v>-0.07892030103338178</v>
+        <v>-0.07891953074530365</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>45504</v>
       </c>
       <c r="B142">
-        <v>-0.06770534488067462</v>
+        <v>-0.06770457730364766</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>45535</v>
       </c>
       <c r="B143">
-        <v>-0.05729977470422721</v>
+        <v>-0.05729897286534068</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>45565</v>
       </c>
       <c r="B144">
-        <v>-0.0410323022591286</v>
+        <v>-0.04103142098629819</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>45596</v>
       </c>
       <c r="B145">
-        <v>-0.0454119694894513</v>
+        <v>-0.04541097519021746</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>-0.07677010242990071</v>
+        <v>-0.07676858104493138</v>
       </c>
     </row>
   </sheetData>

--- a/Output_Backtest/Maximum_Diversification_drawdowns.xlsx
+++ b/Output_Backtest/Maximum_Diversification_drawdowns.xlsx
@@ -684,7 +684,7 @@
         <v>42338</v>
       </c>
       <c r="B38">
-        <v>-0.01794662567860261</v>
+        <v>-0.01794686445455174</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>-0.05015792997048796</v>
+        <v>-0.05015788238763852</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>-0.05870843624569921</v>
+        <v>-0.0587087340325565</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>-0.05327252081427736</v>
+        <v>-0.0532728476097144</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>42460</v>
       </c>
       <c r="B42">
-        <v>-0.02437899511939912</v>
+        <v>-0.02437914052090029</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>42490</v>
       </c>
       <c r="B43">
-        <v>-0.004337458367012381</v>
+        <v>-0.004337409696263506</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>-0.0290315066289277</v>
+        <v>-0.02903178044710489</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>-0.04533108710451782</v>
+        <v>-0.04533095365236462</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>-0.03457661352006704</v>
+        <v>-0.03457652732843212</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>42766</v>
       </c>
       <c r="B52">
-        <v>-0.03054207418763301</v>
+        <v>-0.03054187713976191</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>42794</v>
       </c>
       <c r="B53">
-        <v>-0.01696787138327516</v>
+        <v>-0.01696760251678247</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>42825</v>
       </c>
       <c r="B54">
-        <v>-0.02573816835667093</v>
+        <v>-0.02573770086258479</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>42855</v>
       </c>
       <c r="B55">
-        <v>-0.01906365108299971</v>
+        <v>-0.01906318587711903</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>42886</v>
       </c>
       <c r="B56">
-        <v>-0.01422807129569892</v>
+        <v>-0.01422774160485589</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>42916</v>
       </c>
       <c r="B57">
-        <v>-0.01641799469998667</v>
+        <v>-0.01641791484522403</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>42947</v>
       </c>
       <c r="B58">
-        <v>-0.00189352508093438</v>
+        <v>-0.001893080676990122</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>-0.01824951499838981</v>
+        <v>-0.01824927857444853</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>-0.005184856626948511</v>
+        <v>-0.005184885595309515</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>-0.007863458767894833</v>
+        <v>-0.007863616614482335</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -940,7 +940,7 @@
         <v>43312</v>
       </c>
       <c r="B70">
-        <v>-0.002141472199349067</v>
+        <v>-0.002141594604874687</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>-0.009261751133864774</v>
+        <v>-0.009261933482253414</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>-0.03621693954370069</v>
+        <v>-0.03621730164057701</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>-0.0405422703669823</v>
+        <v>-0.0405422882668322</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>-0.05362177484666501</v>
+        <v>-0.05362177260111679</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>43496</v>
       </c>
       <c r="B76">
-        <v>-0.008925066326037475</v>
+        <v>-0.008925061189183485</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>43524</v>
       </c>
       <c r="B77">
-        <v>-0.002658397359645532</v>
+        <v>-0.002658630248035531</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>43616</v>
       </c>
       <c r="B80">
-        <v>-0.01257232914242695</v>
+        <v>-0.01257234810651227</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>43890</v>
       </c>
       <c r="B89">
-        <v>-0.00737821051260708</v>
+        <v>-0.00737802680547031</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>-0.0324652787993728</v>
+        <v>-0.03246480879583759</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>43951</v>
       </c>
       <c r="B91">
-        <v>-0.02116255326530731</v>
+        <v>-0.02116218269982254</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>44074</v>
       </c>
       <c r="B95">
-        <v>-0.01525289046735828</v>
+        <v>-0.01525267714121683</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>-0.02743776548854176</v>
+        <v>-0.02743759742224961</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>-0.04585522146791773</v>
+        <v>-0.0458550991417901</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>44165</v>
       </c>
       <c r="B98">
-        <v>-0.0005307408283381334</v>
+        <v>-0.0005306620719286927</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>-0.004805138086676898</v>
+        <v>-0.004805106357247923</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>44255</v>
       </c>
       <c r="B101">
-        <v>-0.01513313684768271</v>
+        <v>-0.01513312750893844</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>44286</v>
       </c>
       <c r="B102">
-        <v>-0.03308910095615149</v>
+        <v>-0.03308920882087051</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>44316</v>
       </c>
       <c r="B103">
-        <v>-0.015102055033762</v>
+        <v>-0.0151020081370607</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>44347</v>
       </c>
       <c r="B104">
-        <v>-0.003542552452421251</v>
+        <v>-0.003542206462103916</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>44439</v>
       </c>
       <c r="B107">
-        <v>-0.00260582290958215</v>
+        <v>-0.002605942784307366</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>-0.02050390210572137</v>
+        <v>-0.02050385202854964</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44500</v>
       </c>
       <c r="B109">
-        <v>-0.01057743106585329</v>
+        <v>-0.01057762250906557</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>-0.01473007200271659</v>
+        <v>-0.01473016021388469</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>44561</v>
       </c>
       <c r="B111">
-        <v>-0.006936834147002432</v>
+        <v>-0.006936874049119369</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>-0.03268203213145162</v>
+        <v>-0.03268214612355456</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>-0.03805937054853675</v>
+        <v>-0.03805980846594967</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>-0.06502801279973339</v>
+        <v>-0.06502841787969001</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>-0.106788227520238</v>
+        <v>-0.1067894191452687</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>-0.09857336325350982</v>
+        <v>-0.09857445454827189</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>-0.1127484178977075</v>
+        <v>-0.1127495293501496</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>-0.1079449850283887</v>
+        <v>-0.1079457957907408</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>-0.1381854528287574</v>
+        <v>-0.13818669925385</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>-0.1969382818117332</v>
+        <v>-0.1969394435644983</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>-0.2151584280825633</v>
+        <v>-0.2151594258547492</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>-0.169587842996258</v>
+        <v>-0.1695889949430218</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>-0.1762344905000834</v>
+        <v>-0.1762355948600053</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>-0.1357495880744941</v>
+        <v>-0.1357505565640944</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>-0.1710813229249041</v>
+        <v>-0.171082433868472</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>-0.1419626486786402</v>
+        <v>-0.1419636395051879</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>-0.1434769484578544</v>
+        <v>-0.1434780092440733</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>-0.1783648582694223</v>
+        <v>-0.1783657742379448</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>-0.1605253594888382</v>
+        <v>-0.1605275417427796</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>-0.1221994680511313</v>
+        <v>-0.1222027522798099</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>-0.1471225227579772</v>
+        <v>-0.1471254126476433</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>-0.1694143221520989</v>
+        <v>-0.1694163631521848</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>-0.171724085328317</v>
+        <v>-0.1717259501773335</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>-0.1511868542410029</v>
+        <v>-0.1511888812073918</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>-0.1370086320579603</v>
+        <v>-0.1370107752652092</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>-0.1433456317114896</v>
+        <v>-0.1433478487348096</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>-0.1267433035285725</v>
+        <v>-0.1267455908625379</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>45382</v>
       </c>
       <c r="B138">
-        <v>-0.09177558643831515</v>
+        <v>-0.09177806584506294</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>-0.09933379999602041</v>
+        <v>-0.09933625861260134</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>45443</v>
       </c>
       <c r="B140">
-        <v>-0.09278030712755615</v>
+        <v>-0.0927827937393895</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>45473</v>
       </c>
       <c r="B141">
-        <v>-0.07891953074530365</v>
+        <v>-0.07892192924026255</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>45504</v>
       </c>
       <c r="B142">
-        <v>-0.06770457730364766</v>
+        <v>-0.06770702518150137</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>45535</v>
       </c>
       <c r="B143">
-        <v>-0.05729897286534068</v>
+        <v>-0.057301444896116</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>45565</v>
       </c>
       <c r="B144">
-        <v>-0.04103142098629819</v>
+        <v>-0.04103394533697632</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>45596</v>
       </c>
       <c r="B145">
-        <v>-0.04541097519021746</v>
+        <v>-0.04541351307056977</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>-0.07676858104493138</v>
+        <v>-0.06286433318878541</v>
       </c>
     </row>
   </sheetData>
